--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T06:49:20+00:00</t>
+    <t>2022-09-07T08:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:56:04+00:00</t>
+    <t>2022-09-07T09:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:25:06+00:00</t>
+    <t>2022-09-07T10:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T10:55:00+00:00</t>
+    <t>2022-09-07T11:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T11:02:51+00:00</t>
+    <t>2022-09-07T12:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T12:57:45+00:00</t>
+    <t>2022-09-07T13:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:25:36+00:00</t>
+    <t>2022-09-07T14:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T14:04:03+00:00</t>
+    <t>2022-09-09T00:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T00:36:28+00:00</t>
+    <t>2022-09-09T12:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T12:25:43+00:00</t>
+    <t>2022-09-12T18:58:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T18:58:52+00:00</t>
+    <t>2022-09-12T21:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="122">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T21:58:47+00:00</t>
+    <t>2022-09-14T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>21</t>
+    <t>40</t>
   </si>
   <si>
     <t>Level</t>
@@ -141,130 +141,244 @@
     <t>1</t>
   </si>
   <si>
-    <t>B12101</t>
+    <t>JPR10000</t>
   </si>
   <si>
     <t>医師</t>
   </si>
   <si>
-    <t>B12201</t>
+    <t>JPR10100</t>
+  </si>
+  <si>
+    <t>研修医</t>
+  </si>
+  <si>
+    <t>JPR10101</t>
+  </si>
+  <si>
+    <t>研修医（１年目）</t>
+  </si>
+  <si>
+    <t>JPR10102</t>
+  </si>
+  <si>
+    <t>研修医（２年目）</t>
+  </si>
+  <si>
+    <t>JPR10200</t>
   </si>
   <si>
     <t>歯科医師</t>
   </si>
   <si>
-    <t>B12301</t>
-  </si>
-  <si>
-    <t>獣医師</t>
-  </si>
-  <si>
-    <t>B12401</t>
-  </si>
-  <si>
-    <t>薬剤師（調剤）</t>
-  </si>
-  <si>
-    <t>B12402</t>
-  </si>
-  <si>
-    <t>薬剤師（医薬品販売）</t>
-  </si>
-  <si>
-    <t>B12499</t>
-  </si>
-  <si>
-    <t>他に分類されない薬剤師</t>
-  </si>
-  <si>
-    <t>B13101</t>
+    <t>JPR10300</t>
+  </si>
+  <si>
+    <t>非常勤医師</t>
+  </si>
+  <si>
+    <t>JPR10400</t>
+  </si>
+  <si>
+    <t>登録医</t>
+  </si>
+  <si>
+    <t>JPR10500</t>
+  </si>
+  <si>
+    <t>医学生</t>
+  </si>
+  <si>
+    <t>JPR20000</t>
+  </si>
+  <si>
+    <t>看護師</t>
+  </si>
+  <si>
+    <t>JPR20001</t>
+  </si>
+  <si>
+    <t>看護師（学生・実習生）</t>
+  </si>
+  <si>
+    <t>JPR20100</t>
+  </si>
+  <si>
+    <t>准看護師</t>
+  </si>
+  <si>
+    <t>JPR20200</t>
+  </si>
+  <si>
+    <t>看護助手</t>
+  </si>
+  <si>
+    <t>JPR20300</t>
   </si>
   <si>
     <t>保健師</t>
   </si>
   <si>
-    <t>B13201</t>
+    <t>JPR20400</t>
   </si>
   <si>
     <t>助産師</t>
   </si>
   <si>
-    <t>B13301</t>
-  </si>
-  <si>
-    <t>看護師</t>
-  </si>
-  <si>
-    <t>B13302</t>
-  </si>
-  <si>
-    <t>准看護師</t>
-  </si>
-  <si>
-    <t>B14101</t>
+    <t>JPR20600</t>
+  </si>
+  <si>
+    <t>介護士</t>
+  </si>
+  <si>
+    <t>JPR20700</t>
+  </si>
+  <si>
+    <t>歯科技工士</t>
+  </si>
+  <si>
+    <t>JPR20800</t>
+  </si>
+  <si>
+    <t>歯科衛生士</t>
+  </si>
+  <si>
+    <t>JPR30000</t>
+  </si>
+  <si>
+    <t>薬剤師</t>
+  </si>
+  <si>
+    <t>JPR30100</t>
+  </si>
+  <si>
+    <t>臨床検査技師</t>
+  </si>
+  <si>
+    <t>JPR30200</t>
   </si>
   <si>
     <t>診療放射線技師</t>
   </si>
   <si>
-    <t>B14201</t>
+    <t>JPR30300</t>
   </si>
   <si>
     <t>臨床工学技士</t>
   </si>
   <si>
-    <t>B14301</t>
-  </si>
-  <si>
-    <t>臨床検査技師</t>
-  </si>
-  <si>
-    <t>B14401</t>
+    <t>JPR30400</t>
   </si>
   <si>
     <t>理学療法士</t>
   </si>
   <si>
-    <t>B14501</t>
+    <t>JPR30500</t>
   </si>
   <si>
     <t>作業療法士</t>
   </si>
   <si>
-    <t>B14601</t>
+    <t>JPR30600</t>
+  </si>
+  <si>
+    <t>言語聴覚士</t>
+  </si>
+  <si>
+    <t>JPR30700</t>
   </si>
   <si>
     <t>視能訓練士</t>
   </si>
   <si>
-    <t>B14602</t>
-  </si>
-  <si>
-    <t>言語聴覚士</t>
-  </si>
-  <si>
-    <t>B14701</t>
-  </si>
-  <si>
-    <t>歯科衛生士</t>
-  </si>
-  <si>
-    <t>B14801</t>
-  </si>
-  <si>
-    <t>歯科技工士</t>
-  </si>
-  <si>
-    <t>B15101</t>
+    <t>JPR30800</t>
+  </si>
+  <si>
+    <t>臨床心理士</t>
+  </si>
+  <si>
+    <t>JPR30900</t>
+  </si>
+  <si>
+    <t>管理栄養士</t>
+  </si>
+  <si>
+    <t>JPR40000</t>
   </si>
   <si>
     <t>栄養士</t>
   </si>
   <si>
-    <t>B15102</t>
-  </si>
-  <si>
-    <t>管理栄養士</t>
+    <t>JPR50000</t>
+  </si>
+  <si>
+    <t>事務職</t>
+  </si>
+  <si>
+    <t>JPR50100</t>
+  </si>
+  <si>
+    <t>医事会計</t>
+  </si>
+  <si>
+    <t>JPR50200</t>
+  </si>
+  <si>
+    <t>診療情報管理士</t>
+  </si>
+  <si>
+    <t>JPR50300</t>
+  </si>
+  <si>
+    <t>医療社会福祉士（ＭＳＷ）</t>
+  </si>
+  <si>
+    <t>JPR70100</t>
+  </si>
+  <si>
+    <t>治験依頼者</t>
+  </si>
+  <si>
+    <t>JPR70200</t>
+  </si>
+  <si>
+    <t>大学教員</t>
+  </si>
+  <si>
+    <t>JPR80100</t>
+  </si>
+  <si>
+    <t>臨床開発モニター</t>
+  </si>
+  <si>
+    <t>JPR80200</t>
+  </si>
+  <si>
+    <t>閲覧用</t>
+  </si>
+  <si>
+    <t>JPR90100</t>
+  </si>
+  <si>
+    <t>他専門職</t>
+  </si>
+  <si>
+    <t>JPR90200</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>JPR90908</t>
+  </si>
+  <si>
+    <t>ベンダーＳＥ</t>
+  </si>
+  <si>
+    <t>JPR90909</t>
+  </si>
+  <si>
+    <t>システム管理者</t>
   </si>
 </sst>
 </file>
@@ -579,7 +693,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -851,6 +965,234 @@
       </c>
       <c r="D22" s="2"/>
     </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:18:52+00:00</t>
+    <t>2022-09-14T09:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:38:33+00:00</t>
+    <t>2022-09-14T12:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T12:56:24+00:00</t>
+    <t>2022-09-15T21:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T21:18:29+00:00</t>
+    <t>2022-09-15T22:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-09-16T00:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:49:51+00:00</t>
+    <t>2022-09-16T00:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:58:14+00:00</t>
+    <t>2022-09-16T01:34:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:34:43+00:00</t>
+    <t>2022-09-16T02:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:51:37+00:00</t>
+    <t>2022-09-16T03:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:47:56+00:00</t>
+    <t>2022-09-16T04:34:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T04:34:30+00:00</t>
+    <t>2022-09-16T06:11:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T06:11:11+00:00</t>
+    <t>2022-09-16T07:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-practitioner-role-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T07:34:37+00:00</t>
+    <t>2022-09-16T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
